--- a/input_data/USA/Y_1987_ImpNoExpNoCII_ExtAgg.xlsx
+++ b/input_data/USA/Y_1987_ImpNoExpNoCII_ExtAgg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jstreeck\Desktop\EndUse_shortTermSave\2020_NationalOfficial_IOSUT\USA\Benchmark_SUTIO\_NewResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jstreeck\Documents\GitHub\IO_MaterialEndUse_Shares\input_data\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C252FA9-42A9-44AC-AA8E-F9FFD802B085}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFA45EF-2C93-42FA-AEFE-54CF007A0AF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="522">
   <si>
     <t>commodity_ID</t>
   </si>
@@ -1583,6 +1583,9 @@
   </si>
   <si>
     <t>final_demand</t>
+  </si>
+  <si>
+    <t>Hospitals1</t>
   </si>
 </sst>
 </file>
@@ -1986,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C517"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2492,7 +2495,7 @@
         <v>110231</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>521</v>
       </c>
       <c r="C46">
         <v>8476.9</v>
